--- a/server/src/main/resources/templates/导出报表模板.xlsx
+++ b/server/src/main/resources/templates/导出报表模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lb267\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\WorkSpace\IDEA_WorkSpace\parking-lot-manager-system\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A7385-7E47-4991-8CDC-F415FD9EA23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549970AF-8125-484A-A636-900532EA0A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,11 +70,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
+    <t>数据报表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>数据报表</t>
+    <t>日期</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1136,7 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
